--- a/E2EAmazon/test-output/Bug-Report.xlsx
+++ b/E2EAmazon/test-output/Bug-Report.xlsx
@@ -48,19 +48,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2020-11-17T19:28:09 IST</t>
+    <t>2020-12-24T19:26:20 IST</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2020-11-17T19:28:46 IST</t>
+    <t>2020-12-24T19:27:37 IST</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>36446 ms</t>
+    <t>76635 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -78,16 +78,16 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>expected [2] but found [0]</t>
-  </si>
-  <si>
-    <t>2020-11-17T19:28:41 IST</t>
-  </si>
-  <si>
-    <t>2020-11-17T19:28:45 IST</t>
-  </si>
-  <si>
-    <t>3216 ms</t>
+    <t>expected [1] but found [0]</t>
+  </si>
+  <si>
+    <t>2020-12-24T19:27:32 IST</t>
+  </si>
+  <si>
+    <t>2020-12-24T19:27:35 IST</t>
+  </si>
+  <si>
+    <t>3120 ms</t>
   </si>
   <si>
     <t>testcases.TC002.Clickaddtocart</t>
@@ -99,19 +99,19 @@
     <t/>
   </si>
   <si>
-    <t>2020-11-17T19:28:25 IST</t>
-  </si>
-  <si>
-    <t>16048 ms</t>
+    <t>2020-12-24T19:27:01 IST</t>
+  </si>
+  <si>
+    <t>30662 ms</t>
   </si>
   <si>
     <t>testcases.TC001.Checkcartcountbefore</t>
   </si>
   <si>
-    <t>2020-11-17T19:28:22 IST</t>
-  </si>
-  <si>
-    <t>3594 ms</t>
+    <t>2020-12-24T19:26:57 IST</t>
+  </si>
+  <si>
+    <t>4850 ms</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -427,9 +427,9 @@
   <cols>
     <col min="1" max="1" width="45.7578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.41015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="30.73828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="30.73828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.0234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.5078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.5078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
